--- a/data/Pre-experiment survey.xlsx
+++ b/data/Pre-experiment survey.xlsx
@@ -8,22 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrine.n.kuiper/Developer/UU-coding/HCI-scriptie/Data donation experiment analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA55CF-A2C6-694E-B411-04AB50E27A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F87A3B-85FB-B742-A7E2-5DFE06FD10B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$AE$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$AG$65</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="251">
   <si>
     <t>StartDate</t>
   </si>
@@ -112,7 +123,13 @@
     <t>Q5.4</t>
   </si>
   <si>
+    <t>Q6.1</t>
+  </si>
+  <si>
     <t>ParticipantID</t>
+  </si>
+  <si>
+    <t>Mail</t>
   </si>
   <si>
     <t>Group</t>
@@ -202,12 +219,13 @@
     <t>I generally give a technology the benefit of the doubt when I first use it.</t>
   </si>
   <si>
+    <t>Please fill in your email address in order to continue participation in this research study. 
+This information will only be used to send you email reminders about the next parts of the research study. Once the research study is completed your email information will be deleted.</t>
+  </si>
+  <si>
     <t>*******</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>R_28IZDoTVkoNUOb6</t>
   </si>
   <si>
@@ -220,22 +238,10 @@
     <t>EN-GB</t>
   </si>
   <si>
-    <t>I consent, begin the study</t>
-  </si>
-  <si>
-    <t>Woman</t>
-  </si>
-  <si>
-    <t>Master's degree</t>
-  </si>
-  <si>
-    <t>Agree</t>
-  </si>
-  <si>
-    <t>Somewhat agree</t>
-  </si>
-  <si>
-    <t>Neither agree nor disagree</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>johannahusebye@gmail.com</t>
   </si>
   <si>
     <t>36110</t>
@@ -250,16 +256,10 @@
     <t>social</t>
   </si>
   <si>
-    <t>Man</t>
-  </si>
-  <si>
-    <t>High school</t>
-  </si>
-  <si>
-    <t>Strongly disagree</t>
-  </si>
-  <si>
-    <t>Disagree</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>mail@jvik.no</t>
   </si>
   <si>
     <t>91093</t>
@@ -268,10 +268,7 @@
     <t>R_1gzOYPRTC3z9eKx</t>
   </si>
   <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>Somewhat disagree</t>
+    <t>J.kuiper@lacdr.leidenuniv.nl</t>
   </si>
   <si>
     <t>18413</t>
@@ -283,7 +280,7 @@
     <t>R_24GFMnObbVzfz4K</t>
   </si>
   <si>
-    <t>Strongly agree</t>
+    <t>Helene_sh@hotmail.com</t>
   </si>
   <si>
     <t>90593</t>
@@ -295,6 +292,9 @@
     <t>R_2rOusrCOXVuhn7V</t>
   </si>
   <si>
+    <t>d.l.oberski@uu.nl</t>
+  </si>
+  <si>
     <t>81921</t>
   </si>
   <si>
@@ -304,25 +304,34 @@
     <t>R_XCgJaU9GwuS5lUl</t>
   </si>
   <si>
+    <t>Arjan.n.kuiper@gmail.com</t>
+  </si>
+  <si>
     <t>37020</t>
   </si>
   <si>
     <t>R_3xhcV3IsK75cHtL</t>
   </si>
   <si>
+    <t>Henkkuiper.fr@gmail.com</t>
+  </si>
+  <si>
     <t>15550</t>
   </si>
   <si>
     <t>R_UVGHYJVV1XlHAqZ</t>
   </si>
   <si>
+    <t>Myrnakuiper@hotmail.com</t>
+  </si>
+  <si>
     <t>39984</t>
   </si>
   <si>
     <t>R_1E0YCBwyhhUDNSF</t>
   </si>
   <si>
-    <t>Bachelor's degree</t>
+    <t>a.rodriguezotero@students.uu.nl</t>
   </si>
   <si>
     <t>65032</t>
@@ -331,21 +340,27 @@
     <t>R_1eM2xYyHXb1GYcG</t>
   </si>
   <si>
+    <t>lukeelshout@gmail.com</t>
+  </si>
+  <si>
     <t>46588</t>
   </si>
   <si>
     <t>R_2wKr1u92Y8N80yH</t>
   </si>
   <si>
+    <t>koenwarfan@gmail.com</t>
+  </si>
+  <si>
     <t>63680</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>R_2D7cUcPC8MAKRZf</t>
   </si>
   <si>
+    <t>Vilhelmdra@live.no</t>
+  </si>
+  <si>
     <t>42739</t>
   </si>
   <si>
@@ -355,48 +370,72 @@
     <t>R_ReoTQkgy4e8bfbz</t>
   </si>
   <si>
+    <t>rara-92@hotmail.com</t>
+  </si>
+  <si>
     <t>95171</t>
   </si>
   <si>
     <t>R_3shpA4auPILN2Xb</t>
   </si>
   <si>
+    <t>m.t.vanderhaagen@students.uu.nl</t>
+  </si>
+  <si>
     <t>98612</t>
   </si>
   <si>
     <t>R_33EGRWB2WrpMjwR</t>
   </si>
   <si>
+    <t>aalberts.karin@gmail.com</t>
+  </si>
+  <si>
     <t>93615</t>
   </si>
   <si>
     <t>R_3meouKAwZGsFK13</t>
   </si>
   <si>
+    <t>Marloesvredenborg@hotmail.com</t>
+  </si>
+  <si>
     <t>82350</t>
   </si>
   <si>
     <t>R_0esi6mKJsaHZsoF</t>
   </si>
   <si>
+    <t>Clementaurelie44@gmail.com</t>
+  </si>
+  <si>
     <t>35211</t>
   </si>
   <si>
     <t>R_2wyOybdeeH7mDNv</t>
   </si>
   <si>
+    <t>torgeir.folkestad@gmail.com</t>
+  </si>
+  <si>
     <t>34376</t>
   </si>
   <si>
     <t>R_5cnxXFxWCBtfX1f</t>
   </si>
   <si>
+    <t>Hbfleten@gmail.com</t>
+  </si>
+  <si>
     <t>12622</t>
   </si>
   <si>
     <t>R_1ieWyNOFMMvNEkx</t>
   </si>
   <si>
+    <t>norstein.gunvor@gmail.com</t>
+  </si>
+  <si>
     <t>88229</t>
   </si>
   <si>
@@ -406,120 +445,180 @@
     <t>R_2zHYQf4gNIYct3z</t>
   </si>
   <si>
+    <t>maristakkestadlie@gmail.com</t>
+  </si>
+  <si>
     <t>96200</t>
   </si>
   <si>
     <t>R_PNYYdMwokdjubjb</t>
   </si>
   <si>
+    <t>nynkuiper@hotmail.com</t>
+  </si>
+  <si>
     <t>22581</t>
   </si>
   <si>
     <t>R_1S4bfPMDYemjnzj</t>
   </si>
   <si>
+    <t>Rolf_boot@live.nl</t>
+  </si>
+  <si>
     <t>30358</t>
   </si>
   <si>
     <t>R_2D5lDdiWx5lLpM5</t>
   </si>
   <si>
+    <t>maaikekuiper95@hotmail.com</t>
+  </si>
+  <si>
     <t>72432</t>
   </si>
   <si>
     <t>R_10OdTT4fCPXAzMt</t>
   </si>
   <si>
+    <t>Signeky@gmail.com</t>
+  </si>
+  <si>
     <t>14609</t>
   </si>
   <si>
     <t>R_1kZxqasO0sZyrge</t>
   </si>
   <si>
+    <t>maria_songve@hotmail.com</t>
+  </si>
+  <si>
     <t>18257</t>
   </si>
   <si>
     <t>R_1oe6c03HzGgnR0z</t>
   </si>
   <si>
+    <t>Oda.nilsen@gmail.com</t>
+  </si>
+  <si>
     <t>61014</t>
   </si>
   <si>
     <t>R_3Dj72mJq9L3imWt</t>
   </si>
   <si>
+    <t>Malin-94-p@hotmail.com</t>
+  </si>
+  <si>
     <t>59668</t>
   </si>
   <si>
     <t>R_3MF3kDVvLLpkTV3</t>
   </si>
   <si>
+    <t>robinkenter@gmail.com</t>
+  </si>
+  <si>
     <t>54779</t>
   </si>
   <si>
     <t>R_2OZNANlp0mkFDI9</t>
   </si>
   <si>
+    <t>p.lugtig@uu.nl</t>
+  </si>
+  <si>
     <t>67484</t>
   </si>
   <si>
     <t>R_1Dp7V1MLRZZRXWV</t>
   </si>
   <si>
+    <t>piaherbes@gmail.com</t>
+  </si>
+  <si>
     <t>59485</t>
   </si>
   <si>
     <t>R_cCH5DtwHgRtFv2h</t>
   </si>
   <si>
+    <t>c.e.moll@uu.nl</t>
+  </si>
+  <si>
     <t>11942</t>
   </si>
   <si>
     <t>R_1IKMjLHasMXqgVw</t>
   </si>
   <si>
+    <t>Casper.de.haas78@gmail.com</t>
+  </si>
+  <si>
     <t>10493</t>
   </si>
   <si>
     <t>R_3DokgLIogqbNnMp</t>
   </si>
   <si>
+    <t>gsolhaug@gmail.com</t>
+  </si>
+  <si>
     <t>96216</t>
   </si>
   <si>
     <t>R_3KAVkKnhikNCX0o</t>
   </si>
   <si>
+    <t>ingrid.sortveit@gmail.com</t>
+  </si>
+  <si>
     <t>39050</t>
   </si>
   <si>
     <t>R_Uzm0yApuR5XhbXP</t>
   </si>
   <si>
+    <t>jelmer.j.kuiper@gmail.com</t>
+  </si>
+  <si>
     <t>12430</t>
   </si>
   <si>
     <t>R_21i8mmAM2jWQoqt</t>
   </si>
   <si>
+    <t>diana.alupoaie1@gmail.com</t>
+  </si>
+  <si>
     <t>63781</t>
   </si>
   <si>
     <t>R_d4Lwjc5nUXEsH4d</t>
   </si>
   <si>
+    <t>evagian13@gmail.com</t>
+  </si>
+  <si>
     <t>30524</t>
   </si>
   <si>
     <t>R_110dP3FgAstPUNf</t>
   </si>
   <si>
+    <t>l.j.a.vanderzandt@students.uu.nl</t>
+  </si>
+  <si>
     <t>86891</t>
   </si>
   <si>
     <t>R_2fHRjf1QyAk9Aau</t>
   </si>
   <si>
+    <t>yvonne.hoven@hotmail.com</t>
+  </si>
+  <si>
     <t>29957</t>
   </si>
   <si>
@@ -529,82 +628,112 @@
     <t>qr</t>
   </si>
   <si>
+    <t>j.xue@students.uu.nl</t>
+  </si>
+  <si>
     <t>98399</t>
   </si>
   <si>
     <t>R_1l4vrbmShS6djRl</t>
   </si>
   <si>
+    <t>s.stroop@students.uu.nl</t>
+  </si>
+  <si>
     <t>94747</t>
   </si>
   <si>
     <t>R_2S7VQxpAlJKZhAz</t>
   </si>
   <si>
+    <t>x.g.j.vandijk@students.uu.nl</t>
+  </si>
+  <si>
     <t>53568</t>
   </si>
   <si>
     <t>R_1hyzFxO6AVLh7P1</t>
   </si>
   <si>
+    <t>o.a.hundogan@students.uu.nl</t>
+  </si>
+  <si>
     <t>96722</t>
   </si>
   <si>
     <t>R_3e9oeNGdbFdSTtW</t>
   </si>
   <si>
+    <t>nielsvantleven@hotmail.com</t>
+  </si>
+  <si>
     <t>51944</t>
   </si>
   <si>
     <t>R_1jAE5o9uJp0e3gY</t>
   </si>
   <si>
-    <t>I do not consent, I do not wish to participate</t>
-  </si>
-  <si>
     <t>24724</t>
   </si>
   <si>
     <t>R_305IAU4C55nbjER</t>
   </si>
   <si>
+    <t>handrajati@gmail.com</t>
+  </si>
+  <si>
     <t>85706</t>
   </si>
   <si>
     <t>R_6t065CmCgIOz6V3</t>
   </si>
   <si>
+    <t>Alex2000323@gmail.com</t>
+  </si>
+  <si>
     <t>48150</t>
   </si>
   <si>
     <t>R_3MzJJAfFn5zRgFD</t>
   </si>
   <si>
+    <t>B.morsi@students.uu.nl</t>
+  </si>
+  <si>
     <t>81153</t>
   </si>
   <si>
     <t>R_2VC0MfbDTLD51fL</t>
   </si>
   <si>
+    <t>Y.tan@students.uu.nl</t>
+  </si>
+  <si>
     <t>25718</t>
   </si>
   <si>
     <t>R_1FhyZzmapUDN0xt</t>
   </si>
   <si>
+    <t>karolina.mazurek@protonmail.com</t>
+  </si>
+  <si>
     <t>32307</t>
   </si>
   <si>
     <t>R_3qEzrPZV41AzYQr</t>
   </si>
   <si>
+    <t>verhagen.nick@gmail.com</t>
+  </si>
+  <si>
     <t>15561</t>
   </si>
   <si>
     <t>R_RF7jID7VicCWNrj</t>
   </si>
   <si>
-    <t>Non-binary</t>
+    <t>3</t>
   </si>
   <si>
     <t>28163</t>
@@ -655,7 +784,16 @@
     <t>R_1ez9wRMGzrIV2eJ</t>
   </si>
   <si>
+    <t>daphnevdgeest@gmail.com</t>
+  </si>
+  <si>
     <t>33926</t>
+  </si>
+  <si>
+    <t>R_1gdQbnwAeqDfuPV</t>
+  </si>
+  <si>
+    <t>97463</t>
   </si>
 </sst>
 </file>
@@ -1017,16 +1155,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE63"/>
+  <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG5" sqref="AG5"/>
+      <selection pane="bottomLeft" activeCell="AD1" activeCellId="1" sqref="AF1:AF1048576 AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1120,19 +1258,25 @@
       <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
@@ -1144,90 +1288,96 @@
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="AF2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44448.468888888892</v>
       </c>
       <c r="B3" s="1">
         <v>44448.479895833334</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -1235,94 +1385,100 @@
       <c r="F3">
         <v>950</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>58</v>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>44448.479902511572</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U3">
         <v>26</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="2" t="s">
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>6</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <v>6</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
+        <v>4</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>70</v>
-      </c>
     </row>
-    <row r="4" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44448.522361111114</v>
       </c>
       <c r="B4" s="1">
         <v>44448.523668981485</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1330,94 +1486,100 @@
       <c r="F4">
         <v>112</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>58</v>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>44448.523679432874</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U4">
         <v>30</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W4" s="2" t="s">
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>6</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>70</v>
-      </c>
     </row>
-    <row r="5" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44448.477083333331</v>
       </c>
       <c r="B5" s="1">
         <v>44448.54960648148</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -1425,94 +1587,100 @@
       <c r="F5">
         <v>6265</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>58</v>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>44448.549608854169</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U5">
         <v>62</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>80</v>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44448.63385416667</v>
       </c>
       <c r="B6" s="1">
         <v>44448.635659722226</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -1520,94 +1688,100 @@
       <c r="F6">
         <v>155</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>58</v>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>44448.635680254629</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U6">
         <v>29</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>66</v>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>7</v>
+      </c>
+      <c r="X6">
+        <v>7</v>
+      </c>
+      <c r="Y6">
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <v>7</v>
+      </c>
+      <c r="AA6">
+        <v>6</v>
+      </c>
+      <c r="AB6">
+        <v>6</v>
+      </c>
+      <c r="AC6">
+        <v>6</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44448.636250000003</v>
       </c>
       <c r="B7" s="1">
         <v>44448.637812499997</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -1615,94 +1789,100 @@
       <c r="F7">
         <v>135</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>58</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>44448.637824907404</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U7">
         <v>40</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>68</v>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <v>6</v>
+      </c>
+      <c r="AB7">
+        <v>6</v>
+      </c>
+      <c r="AC7">
+        <v>4</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44448.628379629627</v>
       </c>
       <c r="B8" s="1">
         <v>44448.825150462966</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1710,94 +1890,100 @@
       <c r="F8">
         <v>17001</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>58</v>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>44448.825158877313</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U8">
         <v>35</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>80</v>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44448.920694444445</v>
       </c>
       <c r="B9" s="1">
         <v>44448.968113425923</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -1805,94 +1991,100 @@
       <c r="F9">
         <v>4096</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>58</v>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>44448.968127789354</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U9">
         <v>66</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>66</v>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+      <c r="AA9">
+        <v>5</v>
+      </c>
+      <c r="AB9">
+        <v>5</v>
+      </c>
+      <c r="AC9">
+        <v>6</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44449.347719907404</v>
       </c>
       <c r="B10" s="1">
         <v>44449.349120370367</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -1900,94 +2092,100 @@
       <c r="F10">
         <v>121</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>58</v>
+      <c r="G10">
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>44449.349149594906</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U10">
         <v>25</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>68</v>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>6</v>
+      </c>
+      <c r="AA10">
+        <v>5</v>
+      </c>
+      <c r="AB10">
+        <v>5</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44449.482210648152</v>
       </c>
       <c r="B11" s="1">
         <v>44449.483715277776</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1995,94 +2193,100 @@
       <c r="F11">
         <v>129</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>58</v>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>44449.483718796298</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U11">
         <v>27</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>6</v>
+      </c>
+      <c r="Z11">
+        <v>7</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>6</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="W11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>82</v>
+      <c r="AF11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44449.544421296298</v>
       </c>
       <c r="B12" s="1">
         <v>44449.547025462962</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -2090,94 +2294,100 @@
       <c r="F12">
         <v>224</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>58</v>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>44449.54704701389</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U12">
         <v>23</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>66</v>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>6</v>
+      </c>
+      <c r="AA12">
+        <v>7</v>
+      </c>
+      <c r="AB12">
+        <v>6</v>
+      </c>
+      <c r="AC12">
+        <v>6</v>
       </c>
       <c r="AD12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AE12" s="2" t="s">
-        <v>89</v>
+      <c r="AF12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44449.544293981482</v>
       </c>
       <c r="B13" s="1">
         <v>44449.54828703704</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2185,8 +2395,8 @@
       <c r="F13">
         <v>345</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>58</v>
+      <c r="G13">
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>44449.548300810187</v>
@@ -2195,84 +2405,90 @@
         <v>101</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U13">
         <v>24</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>67</v>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="X13">
+        <v>7</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AB13">
+        <v>5</v>
+      </c>
+      <c r="AC13">
+        <v>5</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>102</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44448.916331018518</v>
       </c>
       <c r="B14" s="1">
         <v>44448.918923611112</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>94</v>
@@ -2280,8 +2496,8 @@
       <c r="F14">
         <v>224</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>103</v>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14" s="1">
         <v>44449.554081365743</v>
@@ -2290,64 +2506,64 @@
         <v>104</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U14">
         <v>33</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>68</v>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <v>3</v>
+      </c>
+      <c r="AB14">
+        <v>5</v>
+      </c>
+      <c r="AC14">
+        <v>4</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>105</v>
@@ -2355,19 +2571,25 @@
       <c r="AE14" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="AF14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44449.554861111108</v>
       </c>
       <c r="B15" s="1">
         <v>44449.557858796295</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2375,94 +2597,100 @@
       <c r="F15">
         <v>258</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>58</v>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>44449.557865983799</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U15">
         <v>28</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>66</v>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AA15">
+        <v>5</v>
+      </c>
+      <c r="AB15">
+        <v>5</v>
+      </c>
+      <c r="AC15">
+        <v>6</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44449.548784722225</v>
       </c>
       <c r="B16" s="1">
         <v>44449.561550925922</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2470,94 +2698,100 @@
       <c r="F16">
         <v>1103</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>58</v>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>44449.56156199074</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U16">
         <v>24</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>80</v>
+      <c r="V16">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16">
+        <v>4</v>
+      </c>
+      <c r="AB16">
+        <v>5</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44448.488344907404</v>
       </c>
       <c r="B17" s="1">
         <v>44448.490127314813</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>94</v>
@@ -2565,94 +2799,100 @@
       <c r="F17">
         <v>153</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>103</v>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>44449.562207673611</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U17">
         <v>32</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>84</v>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>6</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17">
+        <v>7</v>
+      </c>
+      <c r="AC17">
+        <v>7</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44449.668368055558</v>
       </c>
       <c r="B18" s="1">
         <v>44449.669525462959</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -2660,94 +2900,100 @@
       <c r="F18">
         <v>99</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>58</v>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>44449.669530891202</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U18">
         <v>26</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>66</v>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
+      <c r="Z18">
+        <v>5</v>
+      </c>
+      <c r="AA18">
+        <v>5</v>
+      </c>
+      <c r="AB18">
+        <v>5</v>
+      </c>
+      <c r="AC18">
+        <v>6</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44449.717152777775</v>
       </c>
       <c r="B19" s="1">
         <v>44449.718449074076</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -2755,94 +3001,100 @@
       <c r="F19">
         <v>112</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>58</v>
+      <c r="G19">
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <v>44449.718462025463</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U19">
         <v>27</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>67</v>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>5</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="Z19">
+        <v>6</v>
+      </c>
+      <c r="AA19">
+        <v>3</v>
+      </c>
+      <c r="AB19">
+        <v>3</v>
+      </c>
+      <c r="AC19">
+        <v>5</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>70</v>
+        <v>122</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44449.765902777777</v>
       </c>
       <c r="B20" s="1">
         <v>44449.769513888888</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>34</v>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -2850,94 +3102,100 @@
       <c r="F20">
         <v>311</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>58</v>
+      <c r="G20">
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <v>44449.76951943287</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U20">
         <v>37</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>66</v>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>6</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+      <c r="Z20">
+        <v>6</v>
+      </c>
+      <c r="AA20">
+        <v>5</v>
+      </c>
+      <c r="AB20">
+        <v>5</v>
+      </c>
+      <c r="AC20">
+        <v>6</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>86</v>
+        <v>125</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44449.452511574076</v>
       </c>
       <c r="B21" s="1">
         <v>44450.441782407404</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>34</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -2945,94 +3203,100 @@
       <c r="F21">
         <v>85473</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>58</v>
+      <c r="G21">
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>44450.441793680555</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U21">
         <v>50</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>67</v>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <v>6</v>
+      </c>
+      <c r="Y21">
+        <v>6</v>
+      </c>
+      <c r="Z21">
+        <v>5</v>
+      </c>
+      <c r="AA21">
+        <v>6</v>
+      </c>
+      <c r="AB21">
+        <v>6</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44450.34746527778</v>
       </c>
       <c r="B22" s="1">
         <v>44450.352731481478</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>34</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>94</v>
@@ -3040,94 +3304,100 @@
       <c r="F22">
         <v>455</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>103</v>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>44450.556880532407</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U22">
         <v>60</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>68</v>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <v>6</v>
+      </c>
+      <c r="Y22">
+        <v>5</v>
+      </c>
+      <c r="Z22">
+        <v>6</v>
+      </c>
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <v>5</v>
+      </c>
+      <c r="AC22">
+        <v>4</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44450.725416666668</v>
       </c>
       <c r="B23" s="1">
         <v>44450.729386574072</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>34</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -3135,94 +3405,100 @@
       <c r="F23">
         <v>342</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>58</v>
+      <c r="G23">
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <v>44450.729405972219</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U23">
         <v>32</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>67</v>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>6</v>
+      </c>
+      <c r="X23">
+        <v>6</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+      <c r="AA23">
+        <v>5</v>
+      </c>
+      <c r="AB23">
+        <v>5</v>
+      </c>
+      <c r="AC23">
+        <v>5</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44451.034861111111</v>
       </c>
       <c r="B24" s="1">
         <v>44451.036400462966</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -3230,94 +3506,100 @@
       <c r="F24">
         <v>133</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>58</v>
+      <c r="G24">
+        <v>1</v>
       </c>
       <c r="H24" s="1">
         <v>44451.036416469906</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U24">
         <v>30</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>68</v>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>6</v>
+      </c>
+      <c r="X24">
+        <v>5</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+      <c r="Z24">
+        <v>6</v>
+      </c>
+      <c r="AA24">
+        <v>6</v>
+      </c>
+      <c r="AB24">
+        <v>6</v>
+      </c>
+      <c r="AC24">
+        <v>4</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44451.076435185183</v>
       </c>
       <c r="B25" s="1">
         <v>44451.078125</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>34</v>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -3325,94 +3607,100 @@
       <c r="F25">
         <v>145</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>58</v>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="H25" s="1">
         <v>44451.07814445602</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U25">
         <v>29</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>66</v>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>6</v>
+      </c>
+      <c r="X25">
+        <v>7</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25">
+        <v>7</v>
+      </c>
+      <c r="AA25">
+        <v>7</v>
+      </c>
+      <c r="AB25">
+        <v>7</v>
+      </c>
+      <c r="AC25">
+        <v>6</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>89</v>
+        <v>141</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44451.402372685188</v>
       </c>
       <c r="B26" s="1">
         <v>44451.420613425929</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -3420,94 +3708,100 @@
       <c r="F26">
         <v>1575</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>58</v>
+      <c r="G26">
+        <v>1</v>
       </c>
       <c r="H26" s="1">
         <v>44451.420637615738</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U26">
         <v>25</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>66</v>
+      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>6</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>5</v>
+      </c>
+      <c r="Z26">
+        <v>6</v>
+      </c>
+      <c r="AA26">
+        <v>6</v>
+      </c>
+      <c r="AB26">
+        <v>7</v>
+      </c>
+      <c r="AC26">
+        <v>6</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>89</v>
+        <v>144</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44451.606631944444</v>
       </c>
       <c r="B27" s="1">
         <v>44451.607835648145</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>34</v>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <v>94</v>
@@ -3515,94 +3809,100 @@
       <c r="F27">
         <v>104</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>103</v>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>44451.700281134261</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U27">
         <v>26</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>66</v>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>6</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>6</v>
+      </c>
+      <c r="Z27">
+        <v>6</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AB27">
+        <v>6</v>
+      </c>
+      <c r="AC27">
+        <v>6</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>106</v>
+        <v>147</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44451.726956018516</v>
       </c>
       <c r="B28" s="1">
         <v>44451.729675925926</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>34</v>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -3610,94 +3910,100 @@
       <c r="F28">
         <v>234</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>58</v>
+      <c r="G28">
+        <v>1</v>
       </c>
       <c r="H28" s="1">
         <v>44451.729695567126</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U28">
         <v>27</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>66</v>
+      <c r="V28">
+        <v>4</v>
+      </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>5</v>
+      </c>
+      <c r="Y28">
+        <v>6</v>
+      </c>
+      <c r="Z28">
+        <v>6</v>
+      </c>
+      <c r="AA28">
+        <v>6</v>
+      </c>
+      <c r="AB28">
+        <v>6</v>
+      </c>
+      <c r="AC28">
+        <v>6</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>86</v>
+        <v>150</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44452.524236111109</v>
       </c>
       <c r="B29" s="1">
         <v>44452.525266203702</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>34</v>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -3705,94 +4011,100 @@
       <c r="F29">
         <v>88</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>58</v>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="H29" s="1">
         <v>44452.525273576386</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U29">
         <v>29</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>66</v>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>7</v>
+      </c>
+      <c r="X29">
+        <v>7</v>
+      </c>
+      <c r="Y29">
+        <v>6</v>
+      </c>
+      <c r="Z29">
+        <v>6</v>
+      </c>
+      <c r="AA29">
+        <v>5</v>
+      </c>
+      <c r="AB29">
+        <v>6</v>
+      </c>
+      <c r="AC29">
+        <v>6</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>123</v>
+        <v>153</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44452.530335648145</v>
       </c>
       <c r="B30" s="1">
         <v>44452.531643518516</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>34</v>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>94</v>
@@ -3800,94 +4112,100 @@
       <c r="F30">
         <v>113</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>103</v>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30" s="1">
         <v>44452.5603346875</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U30">
         <v>27</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>67</v>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>5</v>
+      </c>
+      <c r="X30">
+        <v>5</v>
+      </c>
+      <c r="Y30">
+        <v>4</v>
+      </c>
+      <c r="Z30">
+        <v>5</v>
+      </c>
+      <c r="AA30">
+        <v>5</v>
+      </c>
+      <c r="AB30">
+        <v>5</v>
+      </c>
+      <c r="AC30">
+        <v>5</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>86</v>
+        <v>156</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44452.742048611108</v>
       </c>
       <c r="B31" s="1">
         <v>44452.747418981482</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>34</v>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -3895,94 +4213,100 @@
       <c r="F31">
         <v>463</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>58</v>
+      <c r="G31">
+        <v>1</v>
       </c>
       <c r="H31" s="1">
         <v>44452.74744515046</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U31">
         <v>33</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>67</v>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>6</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+      <c r="Y31">
+        <v>5</v>
+      </c>
+      <c r="Z31">
+        <v>7</v>
+      </c>
+      <c r="AA31">
+        <v>3</v>
+      </c>
+      <c r="AB31">
+        <v>3</v>
+      </c>
+      <c r="AC31">
+        <v>5</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>89</v>
+        <v>159</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44452.709039351852</v>
       </c>
       <c r="B32" s="1">
         <v>44452.712106481478</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>34</v>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>94</v>
@@ -3990,94 +4314,100 @@
       <c r="F32">
         <v>264</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>103</v>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <v>44452.754990868052</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U32">
         <v>38</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>67</v>
+      <c r="V32">
+        <v>5</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>4</v>
+      </c>
+      <c r="Z32">
+        <v>5</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32">
+        <v>4</v>
+      </c>
+      <c r="AC32">
+        <v>5</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>106</v>
+        <v>162</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44453.482314814813</v>
       </c>
       <c r="B33" s="1">
         <v>44453.489317129628</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>34</v>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -4085,94 +4415,100 @@
       <c r="F33">
         <v>605</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>58</v>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33" s="1">
         <v>44453.489329085649</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U33">
         <v>25</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC33" s="2" t="s">
-        <v>66</v>
+      <c r="V33">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>6</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>5</v>
+      </c>
+      <c r="Z33">
+        <v>6</v>
+      </c>
+      <c r="AA33">
+        <v>5</v>
+      </c>
+      <c r="AB33">
+        <v>5</v>
+      </c>
+      <c r="AC33">
+        <v>6</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>123</v>
+        <v>165</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG33" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44453.67659722222</v>
       </c>
       <c r="B34" s="1">
         <v>44453.678078703706</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>34</v>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <v>94</v>
@@ -4180,94 +4516,100 @@
       <c r="F34">
         <v>127</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>103</v>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>44453.684983391206</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U34">
         <v>27</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>66</v>
+      <c r="V34">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <v>5</v>
+      </c>
+      <c r="Y34">
+        <v>5</v>
+      </c>
+      <c r="Z34">
+        <v>6</v>
+      </c>
+      <c r="AA34">
+        <v>6</v>
+      </c>
+      <c r="AB34">
+        <v>6</v>
+      </c>
+      <c r="AC34">
+        <v>6</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>70</v>
+        <v>168</v>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG34" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44454.416805555556</v>
       </c>
       <c r="B35" s="1">
         <v>44454.420543981483</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>34</v>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -4275,94 +4617,100 @@
       <c r="F35">
         <v>323</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>58</v>
+      <c r="G35">
+        <v>1</v>
       </c>
       <c r="H35" s="1">
         <v>44454.42055609954</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U35">
         <v>26</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC35" s="2" t="s">
-        <v>75</v>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>3</v>
+      </c>
+      <c r="X35">
+        <v>5</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+      <c r="Z35">
+        <v>6</v>
+      </c>
+      <c r="AA35">
+        <v>2</v>
+      </c>
+      <c r="AB35">
+        <v>2</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>123</v>
+        <v>171</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44453.951585648145</v>
       </c>
       <c r="B36" s="1">
         <v>44453.95380787037</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>34</v>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E36">
         <v>94</v>
@@ -4370,94 +4718,100 @@
       <c r="F36">
         <v>191</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>103</v>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36" s="1">
         <v>44454.424000150466</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U36">
         <v>40</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC36" s="2" t="s">
-        <v>80</v>
+      <c r="V36">
+        <v>4</v>
+      </c>
+      <c r="W36">
+        <v>4</v>
+      </c>
+      <c r="X36">
+        <v>4</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+      <c r="Z36">
+        <v>5</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>3</v>
+      </c>
+      <c r="AC36">
+        <v>3</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>89</v>
+        <v>174</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44462.767800925925</v>
       </c>
       <c r="B37" s="1">
         <v>44462.789594907408</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>34</v>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -4465,94 +4819,100 @@
       <c r="F37">
         <v>1882</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>58</v>
+      <c r="G37">
+        <v>1</v>
       </c>
       <c r="H37" s="1">
         <v>44462.789602291668</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U37">
         <v>29</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC37" s="2" t="s">
-        <v>66</v>
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>5</v>
+      </c>
+      <c r="X37">
+        <v>5</v>
+      </c>
+      <c r="Y37">
+        <v>4</v>
+      </c>
+      <c r="Z37">
+        <v>4</v>
+      </c>
+      <c r="AA37">
+        <v>6</v>
+      </c>
+      <c r="AB37">
+        <v>6</v>
+      </c>
+      <c r="AC37">
+        <v>6</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>86</v>
+        <v>177</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG37" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44462.9919212963</v>
       </c>
       <c r="B38" s="1">
         <v>44462.994745370372</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>34</v>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -4560,94 +4920,100 @@
       <c r="F38">
         <v>243</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>58</v>
+      <c r="G38">
+        <v>1</v>
       </c>
       <c r="H38" s="1">
         <v>44462.994750833335</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U38">
         <v>30</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>67</v>
+      <c r="V38">
+        <v>4</v>
+      </c>
+      <c r="W38">
+        <v>6</v>
+      </c>
+      <c r="X38">
+        <v>5</v>
+      </c>
+      <c r="Y38">
+        <v>6</v>
+      </c>
+      <c r="Z38">
+        <v>7</v>
+      </c>
+      <c r="AA38">
+        <v>3</v>
+      </c>
+      <c r="AB38">
+        <v>6</v>
+      </c>
+      <c r="AC38">
+        <v>5</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>70</v>
+        <v>180</v>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG38" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44463.671319444446</v>
       </c>
       <c r="B39" s="1">
         <v>44463.673229166663</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>34</v>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E39">
         <v>94</v>
@@ -4655,94 +5021,100 @@
       <c r="F39">
         <v>164</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>103</v>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39" s="1">
         <v>44463.703760833334</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U39">
         <v>25</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC39" s="2" t="s">
-        <v>66</v>
+      <c r="V39">
+        <v>4</v>
+      </c>
+      <c r="W39">
+        <v>5</v>
+      </c>
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39">
+        <v>6</v>
+      </c>
+      <c r="Z39">
+        <v>6</v>
+      </c>
+      <c r="AA39">
+        <v>5</v>
+      </c>
+      <c r="AB39">
+        <v>5</v>
+      </c>
+      <c r="AC39">
+        <v>6</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>82</v>
+        <v>183</v>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG39" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44466.475856481484</v>
       </c>
       <c r="B40" s="1">
         <v>44466.479942129627</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>34</v>
+      <c r="C40">
+        <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -4750,94 +5122,100 @@
       <c r="F40">
         <v>352</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>58</v>
+      <c r="G40">
+        <v>1</v>
       </c>
       <c r="H40" s="1">
         <v>44466.47995361111</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U40">
         <v>28</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>67</v>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>5</v>
+      </c>
+      <c r="X40">
+        <v>4</v>
+      </c>
+      <c r="Y40">
+        <v>3</v>
+      </c>
+      <c r="Z40">
+        <v>5</v>
+      </c>
+      <c r="AA40">
+        <v>5</v>
+      </c>
+      <c r="AB40">
+        <v>6</v>
+      </c>
+      <c r="AC40">
+        <v>5</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>82</v>
+        <v>186</v>
+      </c>
+      <c r="AF40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG40" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44466.547766203701</v>
       </c>
       <c r="B41" s="1">
         <v>44466.549664351849</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>34</v>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -4845,94 +5223,100 @@
       <c r="F41">
         <v>164</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>58</v>
+      <c r="G41">
+        <v>1</v>
       </c>
       <c r="H41" s="1">
         <v>44466.549676168979</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U41">
         <v>25</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>67</v>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>5</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <v>5</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>89</v>
+        <v>189</v>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG41" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44466.695162037038</v>
       </c>
       <c r="B42" s="1">
         <v>44466.698761574073</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>34</v>
+      <c r="C42">
+        <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -4940,94 +5324,100 @@
       <c r="F42">
         <v>310</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>58</v>
+      <c r="G42">
+        <v>1</v>
       </c>
       <c r="H42" s="1">
         <v>44466.698769074072</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U42">
         <v>24</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC42" s="2" t="s">
-        <v>68</v>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>6</v>
+      </c>
+      <c r="X42">
+        <v>4</v>
+      </c>
+      <c r="Y42">
+        <v>5</v>
+      </c>
+      <c r="Z42">
+        <v>6</v>
+      </c>
+      <c r="AA42">
+        <v>3</v>
+      </c>
+      <c r="AB42">
+        <v>4</v>
+      </c>
+      <c r="AC42">
+        <v>4</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>123</v>
+        <v>192</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG42" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44466.552881944444</v>
       </c>
       <c r="B43" s="1">
         <v>44466.554143518515</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>34</v>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E43">
         <v>94</v>
@@ -5035,94 +5425,100 @@
       <c r="F43">
         <v>109</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>103</v>
+      <c r="G43">
+        <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>44466.865713993058</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U43">
         <v>23</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC43" s="2" t="s">
-        <v>66</v>
+      <c r="V43">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>6</v>
+      </c>
+      <c r="X43">
+        <v>5</v>
+      </c>
+      <c r="Y43">
+        <v>7</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+      <c r="AA43">
+        <v>7</v>
+      </c>
+      <c r="AB43">
+        <v>7</v>
+      </c>
+      <c r="AC43">
+        <v>6</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>86</v>
+        <v>196</v>
+      </c>
+      <c r="AF43" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG43" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44466.510555555556</v>
       </c>
       <c r="B44" s="1">
         <v>44466.514120370368</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>34</v>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E44">
         <v>94</v>
@@ -5130,94 +5526,100 @@
       <c r="F44">
         <v>307</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>103</v>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44" s="1">
         <v>44466.86573273148</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U44">
         <v>18</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC44" s="2" t="s">
-        <v>67</v>
+      <c r="V44">
+        <v>2</v>
+      </c>
+      <c r="W44">
+        <v>6</v>
+      </c>
+      <c r="X44">
+        <v>6</v>
+      </c>
+      <c r="Y44">
+        <v>6</v>
+      </c>
+      <c r="Z44">
+        <v>6</v>
+      </c>
+      <c r="AA44">
+        <v>6</v>
+      </c>
+      <c r="AB44">
+        <v>6</v>
+      </c>
+      <c r="AC44">
+        <v>5</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>89</v>
+        <v>199</v>
+      </c>
+      <c r="AF44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG44" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44466.510520833333</v>
       </c>
       <c r="B45" s="1">
         <v>44466.519097222219</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>34</v>
+      <c r="C45">
+        <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>94</v>
@@ -5225,94 +5627,100 @@
       <c r="F45">
         <v>740</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>103</v>
+      <c r="G45">
+        <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>44466.865745034724</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U45">
         <v>19</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC45" s="2" t="s">
-        <v>76</v>
+      <c r="V45">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <v>6</v>
+      </c>
+      <c r="X45">
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <v>6</v>
+      </c>
+      <c r="Z45">
+        <v>6</v>
+      </c>
+      <c r="AA45">
+        <v>7</v>
+      </c>
+      <c r="AB45">
+        <v>6</v>
+      </c>
+      <c r="AC45">
+        <v>2</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>106</v>
+        <v>202</v>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG45" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44467.523090277777</v>
       </c>
       <c r="B46" s="1">
         <v>44467.527905092589</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>34</v>
+      <c r="C46">
+        <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -5320,94 +5728,100 @@
       <c r="F46">
         <v>415</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>58</v>
+      <c r="G46">
+        <v>1</v>
       </c>
       <c r="H46" s="1">
         <v>44467.527909687502</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U46">
         <v>28</v>
       </c>
-      <c r="V46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC46" s="2" t="s">
-        <v>67</v>
+      <c r="V46">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <v>6</v>
+      </c>
+      <c r="X46">
+        <v>5</v>
+      </c>
+      <c r="Y46">
+        <v>5</v>
+      </c>
+      <c r="Z46">
+        <v>7</v>
+      </c>
+      <c r="AA46">
+        <v>5</v>
+      </c>
+      <c r="AB46">
+        <v>5</v>
+      </c>
+      <c r="AC46">
+        <v>5</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>70</v>
+        <v>205</v>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44467.679699074077</v>
       </c>
       <c r="B47" s="1">
         <v>44467.683518518519</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>34</v>
+      <c r="C47">
+        <v>0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -5415,94 +5829,100 @@
       <c r="F47">
         <v>330</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>58</v>
+      <c r="G47">
+        <v>1</v>
       </c>
       <c r="H47" s="1">
         <v>44467.68353130787</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U47">
         <v>22</v>
       </c>
-      <c r="V47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC47" s="2" t="s">
-        <v>66</v>
+      <c r="V47">
+        <v>3</v>
+      </c>
+      <c r="W47">
+        <v>5</v>
+      </c>
+      <c r="X47">
+        <v>2</v>
+      </c>
+      <c r="Y47">
+        <v>6</v>
+      </c>
+      <c r="Z47">
+        <v>6</v>
+      </c>
+      <c r="AA47">
+        <v>6</v>
+      </c>
+      <c r="AB47">
+        <v>6</v>
+      </c>
+      <c r="AC47">
+        <v>6</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>123</v>
+        <v>208</v>
+      </c>
+      <c r="AF47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG47" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44467.684791666667</v>
       </c>
       <c r="B48" s="1">
         <v>44467.685069444444</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>34</v>
+      <c r="C48">
+        <v>0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -5510,94 +5930,100 @@
       <c r="F48">
         <v>24</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>58</v>
+      <c r="G48">
+        <v>1</v>
       </c>
       <c r="H48" s="1">
         <v>44467.685081238429</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>176</v>
+        <v>64</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>60</v>
+        <v>210</v>
+      </c>
+      <c r="AF48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG48" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44467.684398148151</v>
       </c>
       <c r="B49" s="1">
         <v>44467.686631944445</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>34</v>
+      <c r="C49">
+        <v>0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -5605,94 +6031,100 @@
       <c r="F49">
         <v>193</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>58</v>
+      <c r="G49">
+        <v>1</v>
       </c>
       <c r="H49" s="1">
         <v>44467.686643981484</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U49">
         <v>38</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB49" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC49" s="2" t="s">
-        <v>68</v>
+      <c r="V49">
+        <v>4</v>
+      </c>
+      <c r="W49">
+        <v>5</v>
+      </c>
+      <c r="X49">
+        <v>5</v>
+      </c>
+      <c r="Y49">
+        <v>4</v>
+      </c>
+      <c r="Z49">
+        <v>5</v>
+      </c>
+      <c r="AA49">
+        <v>4</v>
+      </c>
+      <c r="AB49">
+        <v>3</v>
+      </c>
+      <c r="AC49">
+        <v>4</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>82</v>
+        <v>213</v>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG49" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44467.679039351853</v>
       </c>
       <c r="B50" s="1">
         <v>44467.699328703704</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>34</v>
+      <c r="C50">
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -5700,94 +6132,100 @@
       <c r="F50">
         <v>1753</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>58</v>
+      <c r="G50">
+        <v>1</v>
       </c>
       <c r="H50" s="1">
         <v>44467.699339444443</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U50">
         <v>21</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y50" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z50" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC50" s="2" t="s">
-        <v>80</v>
+      <c r="V50">
+        <v>3</v>
+      </c>
+      <c r="W50">
+        <v>6</v>
+      </c>
+      <c r="X50">
+        <v>6</v>
+      </c>
+      <c r="Y50">
+        <v>7</v>
+      </c>
+      <c r="Z50">
+        <v>7</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+      <c r="AC50">
+        <v>3</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>89</v>
+        <v>216</v>
+      </c>
+      <c r="AF50" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG50" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44467.679201388892</v>
       </c>
       <c r="B51" s="1">
         <v>44467.714583333334</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>34</v>
+      <c r="C51">
+        <v>0</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -5795,94 +6233,100 @@
       <c r="F51">
         <v>3057</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>58</v>
+      <c r="G51">
+        <v>1</v>
       </c>
       <c r="H51" s="1">
         <v>44467.714598287035</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U51">
         <v>25</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC51" s="2" t="s">
-        <v>67</v>
+      <c r="V51">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>5</v>
+      </c>
+      <c r="X51">
+        <v>6</v>
+      </c>
+      <c r="Y51">
+        <v>6</v>
+      </c>
+      <c r="Z51">
+        <v>6</v>
+      </c>
+      <c r="AA51">
+        <v>3</v>
+      </c>
+      <c r="AB51">
+        <v>4</v>
+      </c>
+      <c r="AC51">
+        <v>5</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="AE51" s="2" t="s">
-        <v>82</v>
+        <v>219</v>
+      </c>
+      <c r="AF51" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG51" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44467.696180555555</v>
       </c>
       <c r="B52" s="1">
         <v>44467.69803240741</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>34</v>
+      <c r="C52">
+        <v>0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E52">
         <v>94</v>
@@ -5890,94 +6334,100 @@
       <c r="F52">
         <v>160</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>103</v>
+      <c r="G52">
+        <v>0</v>
       </c>
       <c r="H52" s="1">
         <v>44467.9281284838</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U52">
         <v>27</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC52" s="2" t="s">
-        <v>66</v>
+      <c r="V52">
+        <v>4</v>
+      </c>
+      <c r="W52">
+        <v>5</v>
+      </c>
+      <c r="X52">
+        <v>6</v>
+      </c>
+      <c r="Y52">
+        <v>4</v>
+      </c>
+      <c r="Z52">
+        <v>6</v>
+      </c>
+      <c r="AA52">
+        <v>6</v>
+      </c>
+      <c r="AB52">
+        <v>6</v>
+      </c>
+      <c r="AC52">
+        <v>6</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>86</v>
+        <v>222</v>
+      </c>
+      <c r="AF52" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG52" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44467.685381944444</v>
       </c>
       <c r="B53" s="1">
         <v>44467.686759259261</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>34</v>
+      <c r="C53">
+        <v>0</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E53">
         <v>94</v>
@@ -5985,94 +6435,100 @@
       <c r="F53">
         <v>118</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>103</v>
+      <c r="G53">
+        <v>0</v>
       </c>
       <c r="H53" s="1">
         <v>44467.928159594907</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U53">
         <v>25</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC53" s="2" t="s">
-        <v>80</v>
+      <c r="V53">
+        <v>3</v>
+      </c>
+      <c r="W53">
+        <v>3</v>
+      </c>
+      <c r="X53">
+        <v>3</v>
+      </c>
+      <c r="Y53">
+        <v>5</v>
+      </c>
+      <c r="Z53">
+        <v>5</v>
+      </c>
+      <c r="AA53">
+        <v>2</v>
+      </c>
+      <c r="AB53">
+        <v>3</v>
+      </c>
+      <c r="AC53">
+        <v>3</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="AE53" s="2" t="s">
-        <v>70</v>
+        <v>225</v>
+      </c>
+      <c r="AF53" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG53" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44467.679699074077</v>
       </c>
       <c r="B54" s="1">
         <v>44467.681817129633</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>34</v>
+      <c r="C54">
+        <v>0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>94</v>
@@ -6080,94 +6536,100 @@
       <c r="F54">
         <v>182</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>103</v>
+      <c r="G54">
+        <v>0</v>
       </c>
       <c r="H54" s="1">
         <v>44467.92817028935</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U54">
         <v>24</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC54" s="2" t="s">
-        <v>67</v>
+      <c r="V54">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <v>5</v>
+      </c>
+      <c r="X54">
+        <v>5</v>
+      </c>
+      <c r="Y54">
+        <v>5</v>
+      </c>
+      <c r="Z54">
+        <v>6</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AC54">
+        <v>5</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>106</v>
+        <v>228</v>
+      </c>
+      <c r="AF54" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG54" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44466.509884259256</v>
       </c>
       <c r="B55" s="1">
         <v>44466.510196759256</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>34</v>
+      <c r="C55">
+        <v>0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E55">
         <v>31</v>
@@ -6175,94 +6637,100 @@
       <c r="F55">
         <v>27</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>103</v>
+      <c r="G55">
+        <v>0</v>
       </c>
       <c r="H55" s="1">
         <v>44468.510212685185</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U55">
         <v>19</v>
       </c>
-      <c r="V55" s="2" t="s">
-        <v>74</v>
+      <c r="V55">
+        <v>2</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>60</v>
+        <v>231</v>
+      </c>
+      <c r="AF55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG55" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44466.510335648149</v>
       </c>
       <c r="B56" s="1">
         <v>44466.511631944442</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>34</v>
+      <c r="C56">
+        <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E56">
         <v>63</v>
@@ -6270,94 +6738,100 @@
       <c r="F56">
         <v>111</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>103</v>
+      <c r="G56">
+        <v>0</v>
       </c>
       <c r="H56" s="1">
         <v>44468.511662256948</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U56">
         <v>20</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X56" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y56" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z56" s="2" t="s">
-        <v>66</v>
+      <c r="V56">
+        <v>2</v>
+      </c>
+      <c r="W56">
+        <v>6</v>
+      </c>
+      <c r="X56">
+        <v>5</v>
+      </c>
+      <c r="Y56">
+        <v>5</v>
+      </c>
+      <c r="Z56">
+        <v>6</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD56" s="2" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="AE56" s="2" t="s">
-        <v>60</v>
+        <v>233</v>
+      </c>
+      <c r="AF56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG56" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44466.511018518519</v>
       </c>
       <c r="B57" s="1">
         <v>44466.511967592596</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>34</v>
+      <c r="C57">
+        <v>0</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E57">
         <v>88</v>
@@ -6365,94 +6839,100 @@
       <c r="F57">
         <v>81</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>103</v>
+      <c r="G57">
+        <v>0</v>
       </c>
       <c r="H57" s="1">
         <v>44468.512015370368</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U57">
         <v>21</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB57" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC57" s="2" t="s">
-        <v>67</v>
+      <c r="V57">
+        <v>2</v>
+      </c>
+      <c r="W57">
+        <v>5</v>
+      </c>
+      <c r="X57">
+        <v>4</v>
+      </c>
+      <c r="Y57">
+        <v>5</v>
+      </c>
+      <c r="Z57">
+        <v>5</v>
+      </c>
+      <c r="AA57">
+        <v>3</v>
+      </c>
+      <c r="AB57">
+        <v>4</v>
+      </c>
+      <c r="AC57">
+        <v>5</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>60</v>
+        <v>235</v>
+      </c>
+      <c r="AF57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG57" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44466.510347222225</v>
       </c>
       <c r="B58" s="1">
         <v>44466.512048611112</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>34</v>
+      <c r="C58">
+        <v>0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E58">
         <v>88</v>
@@ -6460,94 +6940,100 @@
       <c r="F58">
         <v>147</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>103</v>
+      <c r="G58">
+        <v>0</v>
       </c>
       <c r="H58" s="1">
         <v>44468.512065833333</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U58">
         <v>20</v>
       </c>
-      <c r="V58" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC58" s="2" t="s">
-        <v>80</v>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>4</v>
+      </c>
+      <c r="X58">
+        <v>5</v>
+      </c>
+      <c r="Y58">
+        <v>5</v>
+      </c>
+      <c r="Z58">
+        <v>5</v>
+      </c>
+      <c r="AA58">
+        <v>3</v>
+      </c>
+      <c r="AB58">
+        <v>5</v>
+      </c>
+      <c r="AC58">
+        <v>3</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="AE58" s="2" t="s">
-        <v>60</v>
+        <v>237</v>
+      </c>
+      <c r="AF58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG58" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44467.678993055553</v>
       </c>
       <c r="B59" s="1">
         <v>44467.679930555554</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>34</v>
+      <c r="C59">
+        <v>0</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E59">
         <v>31</v>
@@ -6555,94 +7041,100 @@
       <c r="F59">
         <v>80</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>103</v>
+      <c r="G59">
+        <v>0</v>
       </c>
       <c r="H59" s="1">
         <v>44469.679963634262</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U59">
         <v>22</v>
       </c>
-      <c r="V59" s="2" t="s">
-        <v>97</v>
+      <c r="V59">
+        <v>3</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="AE59" s="2" t="s">
-        <v>60</v>
+        <v>239</v>
+      </c>
+      <c r="AF59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG59" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44467.696134259262</v>
       </c>
       <c r="B60" s="1">
         <v>44467.696273148147</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>34</v>
+      <c r="C60">
+        <v>0</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E60">
         <v>13</v>
@@ -6650,94 +7142,100 @@
       <c r="F60">
         <v>11</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>103</v>
+      <c r="G60">
+        <v>0</v>
       </c>
       <c r="H60" s="1">
         <v>44469.696288541665</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="AE60" s="2" t="s">
-        <v>60</v>
+        <v>241</v>
+      </c>
+      <c r="AF60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG60" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44467.696064814816</v>
       </c>
       <c r="B61" s="1">
         <v>44467.696469907409</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>34</v>
+      <c r="C61">
+        <v>0</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E61">
         <v>31</v>
@@ -6745,94 +7243,100 @@
       <c r="F61">
         <v>34</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>103</v>
+      <c r="G61">
+        <v>0</v>
       </c>
       <c r="H61" s="1">
         <v>44469.696476319441</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U61">
         <v>23</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>97</v>
+      <c r="V61">
+        <v>3</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y61" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA61" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC61" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>60</v>
+        <v>243</v>
+      </c>
+      <c r="AF61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG61" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44470.054155092592</v>
       </c>
       <c r="B62" s="1">
         <v>44470.055277777778</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>34</v>
+      <c r="C62">
+        <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -6840,94 +7344,100 @@
       <c r="F62">
         <v>97</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>58</v>
+      <c r="G62">
+        <v>1</v>
       </c>
       <c r="H62" s="1">
         <v>44470.055288402778</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R62" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U62">
         <v>27</v>
       </c>
-      <c r="V62" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W62" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X62" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y62" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z62" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC62" s="2" t="s">
-        <v>80</v>
+      <c r="V62">
+        <v>4</v>
+      </c>
+      <c r="W62">
+        <v>6</v>
+      </c>
+      <c r="X62">
+        <v>6</v>
+      </c>
+      <c r="Y62">
+        <v>6</v>
+      </c>
+      <c r="Z62">
+        <v>5</v>
+      </c>
+      <c r="AA62">
+        <v>7</v>
+      </c>
+      <c r="AB62">
+        <v>7</v>
+      </c>
+      <c r="AC62">
+        <v>3</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>106</v>
+        <v>245</v>
+      </c>
+      <c r="AF62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG62" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44471.439375000002</v>
       </c>
       <c r="B63" s="1">
         <v>44471.441840277781</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>34</v>
+      <c r="C63">
+        <v>0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -6935,87 +7445,195 @@
       <c r="F63">
         <v>212</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>58</v>
+      <c r="G63">
+        <v>1</v>
       </c>
       <c r="H63" s="1">
         <v>44471.441851724536</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U63">
         <v>30</v>
       </c>
-      <c r="V63" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W63" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X63" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y63" s="2" t="s">
+      <c r="V63">
+        <v>4</v>
+      </c>
+      <c r="W63">
+        <v>3</v>
+      </c>
+      <c r="X63">
+        <v>5</v>
+      </c>
+      <c r="Y63">
+        <v>4</v>
+      </c>
+      <c r="Z63">
+        <v>5</v>
+      </c>
+      <c r="AA63">
+        <v>2</v>
+      </c>
+      <c r="AB63">
+        <v>2</v>
+      </c>
+      <c r="AC63">
+        <v>4</v>
+      </c>
+      <c r="AD63" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE63" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF63" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Z63" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC63" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD63" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE63" s="2" t="s">
-        <v>70</v>
+    </row>
+    <row r="64" spans="1:33" ht="48" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44481.645370370374</v>
+      </c>
+      <c r="B64" s="1">
+        <v>44481.646597222221</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64">
+        <v>63</v>
+      </c>
+      <c r="F64">
+        <v>105</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>44482.533866319442</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U64">
+        <v>23</v>
+      </c>
+      <c r="V64">
+        <v>2</v>
+      </c>
+      <c r="W64">
+        <v>6</v>
+      </c>
+      <c r="X64">
+        <v>4</v>
+      </c>
+      <c r="Y64">
+        <v>5</v>
+      </c>
+      <c r="Z64">
+        <v>6</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE64" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG64" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AE64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AG65" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <dataConsolidate topLabels="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C63 D1:D63 G1:G63 I1:I63 J1:J63 K1:K63 L1:L63 M1:M63 N1:N63 O1:O63 P1:P63 Q1:Q63 R1:R63 S1:S63 T1:T63 V1:V63 W1:W63 X1:X63 Y1:Y63 Z1:Z63 AA1:AA63 AB1:AB63 AC1:AC63 AD1:AD63 AE1:AE63" numberStoredAsText="1"/>
+    <ignoredError sqref="D1:D64 I1:I64 J1:J64 K1:K64 L1:L64 M1:M64 N1:N64 O1:O64 P1:P64 Q1:Q64 S1:S64 T1:T64 AD1:AD64 AE1:AE64 AF1:AF64 AG1:AG64" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>